--- a/biology/Botanique/Didymoglossum_barklyanum/Didymoglossum_barklyanum.xlsx
+++ b/biology/Botanique/Didymoglossum_barklyanum/Didymoglossum_barklyanum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Didymoglossum barklyanum est une fougère de la famille des Hyménophyllacées, endémique des îles de la Réunion et de Maurice.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce dispose des caractéristiques suivantes[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce dispose des caractéristiques suivantes :
 le rhizome est rampant, filiforme, très ramifié, de 0,3 mm de diamètre environ, densément couvert de poils noirs ;
 les frondes sont espacées, de moins d'un centimètre et demi de long ;
 le limbe est entier, circulaire à linéaire et progressivement rétréci ;
@@ -548,10 +562,12 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce, rare, plus épilithique qu'épiphyte dans les zones humides, est présente uniquement à la Réunion et à l'île Maurice.
-Cette espèce est classée en préoccupation mineure par l'UICN à la Réunion[2]
+Cette espèce est classée en préoccupation mineure par l'UICN à la Réunion
 </t>
         </is>
       </c>
@@ -580,13 +596,15 @@
           <t>Historique et position taxinomique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un premier spécimen de cette fougère a été découvert à l'île Maurice à la cascade Tamarin par le gouverneur britannique Henry Barkly. Sur la base des notes de William Jackson Hooker, John Gilbert Baker en publie la description en 1866 en dédiant cette espèce à son collecteur : Trichomanes barklyanum[3],[4].
-Edwin Bingham Copeland suggère de la classer dans le genre Didymoglossum, sa place actuelle[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un premier spécimen de cette fougère a été découvert à l'île Maurice à la cascade Tamarin par le gouverneur britannique Henry Barkly. Sur la base des notes de William Jackson Hooker, John Gilbert Baker en publie la description en 1866 en dédiant cette espèce à son collecteur : Trichomanes barklyanum,.
+Edwin Bingham Copeland suggère de la classer dans le genre Didymoglossum, sa place actuelle.
 Conrad Vernon Morton ignore l'espèce dans sa révision de la famille des Hymenophyllacées.
-En 2006, Atsushi Ebihara, Jean-Yves Dubuisson, Kunio Iwatsuki, Sabine Hennequin et Motomi Ito reversent la classent dans le genre Didymoglossum sous-genre Didymoglossum sans cependant procéder à une nouvelle combinaison[6].
-C'est en 2009 que Jacobus Petrus Roux publie la nouvelle combinaison : Didymoglossum barklyanum (Hook. ex Baker) J.P.Roux[7].
+En 2006, Atsushi Ebihara, Jean-Yves Dubuisson, Kunio Iwatsuki, Sabine Hennequin et Motomi Ito reversent la classent dans le genre Didymoglossum sous-genre Didymoglossum sans cependant procéder à une nouvelle combinaison.
+C'est en 2009 que Jacobus Petrus Roux publie la nouvelle combinaison : Didymoglossum barklyanum (Hook. ex Baker) J.P.Roux.
 Didymoglossum barklyanum est classée dans le sous-genre Didymoglossum.
 </t>
         </is>
